--- a/51EQ/src/main/resources/excel/Req_Bill_Supplier_Template.xlsx
+++ b/51EQ/src/main/resources/excel/Req_Bill_Supplier_Template.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="13020" windowHeight="9660"/>
+    <workbookView xWindow="-30520" yWindow="340" windowWidth="25600" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>要货申请单</t>
   </si>
@@ -56,77 +56,94 @@
     <t>${reqBill.orgId}</t>
   </si>
   <si>
+    <t>${reqBill.productName}</t>
+  </si>
+  <si>
+    <t>${reqBill.appNum}</t>
+  </si>
+  <si>
+    <t>${reqBill.refPrice}</t>
+  </si>
+  <si>
+    <t>${reqBill.supplierName}</t>
+  </si>
+  <si>
+    <t>${reqBill.remarks}</t>
+  </si>
+  <si>
+    <t>建议采购数量-低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议采购数量-高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1周销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近2周销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近3周销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近4周销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.lowPurchase}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.highPurchase}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.stockQty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.posQty1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.posQty2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.posQty3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.posQty4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${reqBill.barcode}</t>
-  </si>
-  <si>
-    <t>${reqBill.productName}</t>
-  </si>
-  <si>
-    <t>${reqBill.appNum}</t>
-  </si>
-  <si>
-    <t>${reqBill.refPrice}</t>
-  </si>
-  <si>
-    <t>${reqBill.supplierName}</t>
-  </si>
-  <si>
-    <t>${reqBill.remarks}</t>
-  </si>
-  <si>
-    <t>建议采购数量-低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议采购数量-高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近1周销量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近2周销量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近3周销量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近4周销量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reqBill.lowPurchase}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reqBill.highPurchase}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reqBill.stockQty}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reqBill.posQty1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reqBill.posQty2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reqBill.posQty3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reqBill.posQty4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天库销比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.productNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.stockRatio}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +182,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -187,12 +227,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -200,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,11 +268,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyFill="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,19 +307,42 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="22">
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="样式 1" xfId="2"/>
+    <cellStyle name="样式 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -588,144 +671,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="11" width="11.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="53.1640625" customWidth="1"/>
-    <col min="15" max="15" width="2.83203125" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="8" max="9" width="8" customWidth="1"/>
+    <col min="10" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="53.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" ht="25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
-    <row r="2" spans="1:14" ht="28">
+    <row r="2" spans="1:16" ht="28">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="94.5" customHeight="1">
+    <row r="4" spans="1:16" ht="94.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/51EQ/src/main/resources/excel/Req_Bill_Supplier_Template.xlsx
+++ b/51EQ/src/main/resources/excel/Req_Bill_Supplier_Template.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-30520" yWindow="340" windowWidth="25600" windowHeight="15600"/>
+    <workbookView xWindow="-30860" yWindow="11320" windowWidth="25600" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,9 +62,6 @@
     <t>${reqBill.appNum}</t>
   </si>
   <si>
-    <t>${reqBill.refPrice}</t>
-  </si>
-  <si>
     <t>${reqBill.supplierName}</t>
   </si>
   <si>
@@ -144,14 +141,18 @@
   </si>
   <si>
     <t>${reqBill.stockRatio}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reqBill.costPrice}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,19 +228,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +299,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -301,26 +308,35 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -331,21 +347,28 @@
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="样式 1" xfId="2"/>
     <cellStyle name="样式 2" xfId="3"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -674,10 +697,10 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="3" width="12.83203125" customWidth="1"/>
@@ -689,25 +712,25 @@
     <col min="16" max="16" width="53.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" ht="28">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="28">
       <c r="A2" s="2" t="s">
@@ -716,8 +739,8 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>32</v>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -725,29 +748,29 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>5</v>
@@ -763,55 +786,64 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="7"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:16" ht="94.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -840,7 +872,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -858,7 +890,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
